--- a/en/downloads/data-excel/6.a.1.1.xlsx
+++ b/en/downloads/data-excel/6.a.1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -565,17 +565,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="3" width="36.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="78" customHeight="1">
+    <row r="1" spans="1:27" ht="78" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -586,7 +587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:27">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -597,8 +598,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="12.75" thickBot="1"/>
-    <row r="4" spans="1:23" ht="12.75" thickBot="1">
+    <row r="3" spans="1:27" ht="12.75" thickBot="1"/>
+    <row r="4" spans="1:27" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -668,8 +669,20 @@
       <c r="W4" s="7">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X4" s="7">
+        <v>2020</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>2021</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>2022</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -739,8 +752,20 @@
       <c r="W5" s="10">
         <v>50000</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1">
+      <c r="X5" s="10">
+        <v>23780</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>44660</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>25000</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>13010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -810,8 +835,20 @@
       <c r="W6" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="X6" s="10">
+        <v>38240</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>7950</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>23000</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>16390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="16.5" customHeight="1" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -881,8 +918,20 @@
       <c r="W7" s="11">
         <v>24887.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" s="11">
+        <v>62020</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>52610</v>
+      </c>
+      <c r="Z7" s="11">
+        <v>48000</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>29400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -904,7 +953,7 @@
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:27">
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -925,7 +974,7 @@
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:27">
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -946,7 +995,7 @@
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:27">
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -967,7 +1016,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:27">
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -988,7 +1037,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:27">
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -1009,7 +1058,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:27">
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1030,7 +1079,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:27">
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -1051,7 +1100,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:27">
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
